--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value446.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value446.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.483303460291052</v>
+        <v>1.116974472999573</v>
       </c>
       <c r="B1">
-        <v>1.53699015277298</v>
+        <v>1.931352734565735</v>
       </c>
       <c r="C1">
-        <v>1.724040259653887</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.654019146246326</v>
+        <v>2.113637447357178</v>
       </c>
       <c r="E1">
-        <v>1.574521882916578</v>
+        <v>1.209613561630249</v>
       </c>
     </row>
   </sheetData>
